--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1329638.345684465</v>
+        <v>1304041.59860257</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6164125.866745669</v>
+        <v>6164125.866745672</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.9140566787055</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.749580224518652</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.34400780127524</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>18.29749587628852</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.3702863852114</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.28966669219684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1192,13 +1192,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4081708949658</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>103.8082268022205</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.08653931134224</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.0264983281078</v>
       </c>
       <c r="H11" t="n">
-        <v>305.9220175416241</v>
+        <v>26.5258679639242</v>
       </c>
       <c r="I11" t="n">
         <v>84.16867831253694</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.3627691118613</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>208.7541125229195</v>
@@ -1429,16 +1429,16 @@
         <v>251.0835537728743</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>30.58897324035453</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1610203956031</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>111.2553510152387</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>111.2144666888838</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.4053366889246</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.6663547733089</v>
+        <v>91.47419572459052</v>
       </c>
       <c r="U13" t="n">
         <v>286.238868914087</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>210.557748512245</v>
+        <v>412.0264983281078</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.3627691118613</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>98.66754350319674</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>111.2144666888838</v>
       </c>
       <c r="S16" t="n">
-        <v>198.4053366889246</v>
+        <v>132.6990271073384</v>
       </c>
       <c r="T16" t="n">
-        <v>221.6663547733089</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.238868914087</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>115.6968130034892</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>150.5939126875536</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>276.129181855916</v>
       </c>
       <c r="H17" t="n">
-        <v>305.9220175416241</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>134.3627691118613</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>91.47419572459074</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5213712477205</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>149.1610203956031</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.238868914087</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>38.85168507653233</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>187.5063703983176</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>412.0264983281078</v>
       </c>
       <c r="H20" t="n">
-        <v>305.9220175416241</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>84.16867831253694</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>208.7541125229195</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0835537728743</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>186.6620758323809</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5213712477205</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>121.7260087128006</v>
       </c>
       <c r="T22" t="n">
-        <v>221.6663547733089</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.238868914087</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.0087663794841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.9220175416241</v>
       </c>
       <c r="I23" t="n">
-        <v>84.16867831253694</v>
+        <v>6.070506561622772</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>251.0835537728743</v>
       </c>
       <c r="V23" t="n">
-        <v>249.6540867192209</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.71394110054803</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>88.39249430337661</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>111.2553510152387</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.6663547733089</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.238868914087</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>95.34927240774354</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>412.0264983281078</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>63.37359821623517</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>84.16867831253694</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.3033122062887</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5213712477205</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>149.1610203956031</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>111.2553510152387</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>60.88607634632226</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>87.18894662584441</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.0264983281078</v>
+        <v>13.68558703388169</v>
       </c>
       <c r="H29" t="n">
         <v>305.9220175416241</v>
@@ -2848,7 +2848,7 @@
         <v>208.7541125229195</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0835537728743</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>115.6968130034889</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>88.39249430337631</v>
+        <v>198.4053366889246</v>
       </c>
       <c r="T31" t="n">
         <v>221.6663547733089</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.9220175416241</v>
       </c>
       <c r="I32" t="n">
-        <v>84.16867831253694</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7541125229195</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0835537728743</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>85.26282653504822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>164.0990335362709</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>95.51749634031883</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>87.7986105381263</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>111.2144666888838</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>221.6663547733089</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.238868914087</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>282.1267874386248</v>
       </c>
       <c r="H35" t="n">
-        <v>283.2408845943294</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>84.16867831253694</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>134.3627691118613</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7541125229195</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.1610203956031</v>
       </c>
       <c r="I37" t="n">
-        <v>4.482346314605264</v>
+        <v>111.2553510152387</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.238868914087</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>115.4797954655547</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>88.47902298225613</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>11.006846693776</v>
+        <v>251.0835537728743</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>57.491917281012</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5213712477205</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>149.1610203956031</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>111.2553510152387</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>111.2144666888838</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.0044500213234</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>25.72591065154948</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>262.750752633274</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.0264983281078</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>305.9220175416241</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0835537728743</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5213712477205</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>149.1610203956031</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>111.2144666888838</v>
       </c>
       <c r="S43" t="n">
-        <v>198.4053366889246</v>
+        <v>173.4441602742932</v>
       </c>
       <c r="T43" t="n">
         <v>221.6663547733089</v>
       </c>
       <c r="U43" t="n">
-        <v>286.238868914087</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>144.5713820046272</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>75.34603869707458</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>322.3709371386707</v>
+        <v>412.0264983281078</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>305.9220175416241</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>84.16867831253694</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>134.3627691118613</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7541125229195</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0835537728743</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034779</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>111.2144666888838</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>198.4053366889246</v>
@@ -4191,16 +4191,16 @@
         <v>221.6663547733089</v>
       </c>
       <c r="U46" t="n">
-        <v>286.238868914087</v>
+        <v>176.2260265285391</v>
       </c>
       <c r="V46" t="n">
-        <v>50.64313867152783</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D2" t="n">
         <v>761.6974622895962</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.9694238887622</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="C3" t="n">
-        <v>508.9694238887622</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D3" t="n">
-        <v>508.9694238887622</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>815.6591184614388</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="V3" t="n">
-        <v>960.2697007383952</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="W3" t="n">
-        <v>716.820924094295</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="X3" t="n">
-        <v>508.9694238887622</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.9694238887622</v>
+        <v>613.4725238202047</v>
       </c>
     </row>
     <row r="4">
@@ -4476,10 +4476,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.7844730889342</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>333.7844730889342</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>333.7844730889342</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>333.7844730889342</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="X5" t="n">
-        <v>333.7844730889342</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>333.7844730889342</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405.8038725402083</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C6" t="n">
-        <v>405.8038725402083</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D6" t="n">
-        <v>256.869462878957</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E6" t="n">
-        <v>256.869462878957</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>588.4532163200711</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="Y6" t="n">
-        <v>574.0192095602763</v>
+        <v>787.9255531013317</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>460.1224861050055</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>444.665175483657</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>201.2163988395569</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4840,16 +4840,16 @@
         <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.2612061051368</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C9" t="n">
-        <v>238.2612061051368</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="D9" t="n">
-        <v>238.2612061051368</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E9" t="n">
-        <v>238.2612061051368</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F9" t="n">
-        <v>238.2612061051368</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
         <v>133.4044113554191</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>446.0215048700907</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X9" t="n">
-        <v>446.0215048700907</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y9" t="n">
-        <v>238.2612061051368</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>445.6356222211733</v>
+        <v>1376.379828851861</v>
       </c>
       <c r="C11" t="n">
-        <v>445.6356222211733</v>
+        <v>1376.379828851861</v>
       </c>
       <c r="D11" t="n">
-        <v>445.6356222211733</v>
+        <v>1376.379828851861</v>
       </c>
       <c r="E11" t="n">
-        <v>445.6356222211733</v>
+        <v>990.5915762536172</v>
       </c>
       <c r="F11" t="n">
-        <v>445.6356222211733</v>
+        <v>579.6056714640097</v>
       </c>
       <c r="G11" t="n">
-        <v>445.6356222211733</v>
+        <v>163.4172893144058</v>
       </c>
       <c r="H11" t="n">
-        <v>136.6234832902399</v>
+        <v>136.62348329024</v>
       </c>
       <c r="I11" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J11" t="n">
-        <v>147.6552094694165</v>
+        <v>315.0608584897695</v>
       </c>
       <c r="K11" t="n">
-        <v>342.348668316838</v>
+        <v>509.7543173371911</v>
       </c>
       <c r="L11" t="n">
-        <v>980.9557951268455</v>
+        <v>788.1905308686421</v>
       </c>
       <c r="M11" t="n">
-        <v>1322.439169039457</v>
+        <v>1129.673904781254</v>
       </c>
       <c r="N11" t="n">
-        <v>1674.061909330684</v>
+        <v>1481.29664507248</v>
       </c>
       <c r="O11" t="n">
-        <v>2212.55909191481</v>
+        <v>1799.988766635019</v>
       </c>
       <c r="P11" t="n">
-        <v>2450.054443606664</v>
+        <v>2184.489980381316</v>
       </c>
       <c r="Q11" t="n">
-        <v>2580.230815393969</v>
+        <v>2524.858192921927</v>
       </c>
       <c r="R11" t="n">
-        <v>2580.230815393969</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="S11" t="n">
-        <v>2444.510846594109</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="T11" t="n">
-        <v>2233.648106671968</v>
+        <v>2369.368075471829</v>
       </c>
       <c r="U11" t="n">
-        <v>1980.028355386237</v>
+        <v>2115.748324186097</v>
       </c>
       <c r="V11" t="n">
-        <v>1648.965468042666</v>
+        <v>2115.748324186097</v>
       </c>
       <c r="W11" t="n">
-        <v>1296.196812772552</v>
+        <v>1762.979668915983</v>
       </c>
       <c r="X11" t="n">
-        <v>922.7310545114722</v>
+        <v>1762.979668915983</v>
       </c>
       <c r="Y11" t="n">
-        <v>532.5917225356604</v>
+        <v>1762.979668915983</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3291335376916</v>
+        <v>943.3291335376921</v>
       </c>
       <c r="C12" t="n">
-        <v>768.8761042565646</v>
+        <v>768.8761042565651</v>
       </c>
       <c r="D12" t="n">
-        <v>619.9416945953135</v>
+        <v>619.9416945953139</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7042395898579</v>
+        <v>460.7042395898584</v>
       </c>
       <c r="F12" t="n">
-        <v>314.169681616743</v>
+        <v>314.1696816167434</v>
       </c>
       <c r="G12" t="n">
-        <v>177.2095051939486</v>
+        <v>177.2095051939491</v>
       </c>
       <c r="H12" t="n">
-        <v>80.94111120717116</v>
+        <v>80.94111120717162</v>
       </c>
       <c r="I12" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J12" t="n">
-        <v>89.99384462546091</v>
+        <v>214.8239696124656</v>
       </c>
       <c r="K12" t="n">
-        <v>233.7619750914559</v>
+        <v>358.5921000784606</v>
       </c>
       <c r="L12" t="n">
-        <v>473.3985097474136</v>
+        <v>741.0012200957627</v>
       </c>
       <c r="M12" t="n">
-        <v>1112.005636557421</v>
+        <v>1379.60834690577</v>
       </c>
       <c r="N12" t="n">
-        <v>1750.612763367428</v>
+        <v>2018.215473715778</v>
       </c>
       <c r="O12" t="n">
-        <v>2289.944109825087</v>
+        <v>2289.944109825088</v>
       </c>
       <c r="P12" t="n">
-        <v>2488.697230079258</v>
+        <v>2488.697230079259</v>
       </c>
       <c r="Q12" t="n">
         <v>2571.639231052536</v>
       </c>
       <c r="R12" t="n">
-        <v>2580.230815393969</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="S12" t="n">
-        <v>2439.702499318707</v>
+        <v>2439.702499318708</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.652862686368</v>
+        <v>2244.652862686369</v>
       </c>
       <c r="U12" t="n">
         <v>2016.545734488191</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.393626256448</v>
+        <v>1781.393626256449</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.156269528246</v>
+        <v>1527.156269528247</v>
       </c>
       <c r="X12" t="n">
         <v>1319.304769322714</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>345.5494088848453</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="C13" t="n">
-        <v>345.5494088848453</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="D13" t="n">
-        <v>345.5494088848453</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="E13" t="n">
-        <v>345.5494088848453</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="F13" t="n">
-        <v>345.5494088848453</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="G13" t="n">
-        <v>314.6514561168104</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="H13" t="n">
-        <v>163.9837587475144</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="I13" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J13" t="n">
         <v>62.04130848727625</v>
@@ -5223,28 +5223,28 @@
         <v>1426.016752712151</v>
       </c>
       <c r="R13" t="n">
-        <v>1313.678907571864</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="S13" t="n">
-        <v>1113.26947657295</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="T13" t="n">
-        <v>889.364067711022</v>
+        <v>1333.618575212564</v>
       </c>
       <c r="U13" t="n">
-        <v>600.2338970907322</v>
+        <v>1044.488404592274</v>
       </c>
       <c r="V13" t="n">
-        <v>345.5494088848453</v>
+        <v>789.8039163863875</v>
       </c>
       <c r="W13" t="n">
-        <v>345.5494088848453</v>
+        <v>500.3867463494269</v>
       </c>
       <c r="X13" t="n">
-        <v>345.5494088848453</v>
+        <v>272.3971954514095</v>
       </c>
       <c r="Y13" t="n">
-        <v>345.5494088848453</v>
+        <v>51.6046163078794</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1430.025885092956</v>
+        <v>1237.044601853841</v>
       </c>
       <c r="C14" t="n">
-        <v>1061.063368152544</v>
+        <v>1237.044601853841</v>
       </c>
       <c r="D14" t="n">
-        <v>1061.063368152544</v>
+        <v>878.7789032470907</v>
       </c>
       <c r="E14" t="n">
-        <v>675.2751155543001</v>
+        <v>878.7789032470907</v>
       </c>
       <c r="F14" t="n">
-        <v>264.2892107646925</v>
+        <v>467.7929984574832</v>
       </c>
       <c r="G14" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="H14" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="I14" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J14" t="n">
-        <v>147.6552094694165</v>
+        <v>315.0608584897695</v>
       </c>
       <c r="K14" t="n">
-        <v>342.348668316838</v>
+        <v>509.7543173371911</v>
       </c>
       <c r="L14" t="n">
-        <v>980.9557951268455</v>
+        <v>788.1905308686421</v>
       </c>
       <c r="M14" t="n">
-        <v>1322.439169039457</v>
+        <v>1129.673904781254</v>
       </c>
       <c r="N14" t="n">
-        <v>1893.866970352271</v>
+        <v>1481.29664507248</v>
       </c>
       <c r="O14" t="n">
-        <v>2212.55909191481</v>
+        <v>1799.988766635019</v>
       </c>
       <c r="P14" t="n">
-        <v>2450.054443606664</v>
+        <v>2184.489980381316</v>
       </c>
       <c r="Q14" t="n">
-        <v>2580.230815393969</v>
+        <v>2524.858192921927</v>
       </c>
       <c r="R14" t="n">
-        <v>2580.230815393969</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="S14" t="n">
-        <v>2580.230815393969</v>
+        <v>2444.51084659411</v>
       </c>
       <c r="T14" t="n">
-        <v>2580.230815393969</v>
+        <v>2444.51084659411</v>
       </c>
       <c r="U14" t="n">
-        <v>2580.230815393969</v>
+        <v>2444.51084659411</v>
       </c>
       <c r="V14" t="n">
-        <v>2580.230815393969</v>
+        <v>2113.447959250539</v>
       </c>
       <c r="W14" t="n">
-        <v>2580.230815393969</v>
+        <v>2113.447959250539</v>
       </c>
       <c r="X14" t="n">
-        <v>2206.76505713289</v>
+        <v>2013.783773893775</v>
       </c>
       <c r="Y14" t="n">
-        <v>1816.625725157078</v>
+        <v>1623.644441917963</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.329133537692</v>
+        <v>943.3291335376921</v>
       </c>
       <c r="C15" t="n">
-        <v>768.876104256565</v>
+        <v>768.8761042565651</v>
       </c>
       <c r="D15" t="n">
-        <v>619.9416945953137</v>
+        <v>619.9416945953139</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7042395898582</v>
+        <v>460.7042395898584</v>
       </c>
       <c r="F15" t="n">
-        <v>314.1696816167431</v>
+        <v>314.1696816167434</v>
       </c>
       <c r="G15" t="n">
-        <v>177.2095051939484</v>
+        <v>177.2095051939491</v>
       </c>
       <c r="H15" t="n">
-        <v>80.94111120717116</v>
+        <v>80.94111120717162</v>
       </c>
       <c r="I15" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J15" t="n">
-        <v>89.99384462546091</v>
+        <v>214.8239696124656</v>
       </c>
       <c r="K15" t="n">
-        <v>233.7619750914559</v>
+        <v>620.4126847209135</v>
       </c>
       <c r="L15" t="n">
-        <v>840.5304515978382</v>
+        <v>874.6356932236379</v>
       </c>
       <c r="M15" t="n">
-        <v>1390.205193614204</v>
+        <v>1173.63709441428</v>
       </c>
       <c r="N15" t="n">
-        <v>1711.528917103673</v>
+        <v>1494.960817903749</v>
       </c>
       <c r="O15" t="n">
-        <v>1983.257553212983</v>
+        <v>1766.689454013059</v>
       </c>
       <c r="P15" t="n">
-        <v>2497.288814420692</v>
+        <v>2280.720715220768</v>
       </c>
       <c r="Q15" t="n">
-        <v>2580.230815393969</v>
+        <v>2571.639231052536</v>
       </c>
       <c r="R15" t="n">
-        <v>2580.230815393969</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="S15" t="n">
-        <v>2439.702499318707</v>
+        <v>2439.702499318708</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.652862686368</v>
+        <v>2244.652862686369</v>
       </c>
       <c r="U15" t="n">
         <v>2016.545734488191</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.393626256448</v>
+        <v>1781.393626256449</v>
       </c>
       <c r="W15" t="n">
         <v>1527.156269528247</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.60461630787939</v>
+        <v>346.4076573881829</v>
       </c>
       <c r="C16" t="n">
-        <v>51.60461630787939</v>
+        <v>346.4076573881829</v>
       </c>
       <c r="D16" t="n">
-        <v>51.60461630787939</v>
+        <v>346.4076573881829</v>
       </c>
       <c r="E16" t="n">
-        <v>51.60461630787939</v>
+        <v>198.4945638057898</v>
       </c>
       <c r="F16" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="G16" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="H16" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="I16" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J16" t="n">
         <v>62.04130848727625</v>
@@ -5460,28 +5460,28 @@
         <v>1426.016752712151</v>
       </c>
       <c r="R16" t="n">
-        <v>1426.016752712151</v>
+        <v>1313.678907571864</v>
       </c>
       <c r="S16" t="n">
-        <v>1225.607321713237</v>
+        <v>1179.63948625132</v>
       </c>
       <c r="T16" t="n">
-        <v>1001.701912851309</v>
+        <v>1179.63948625132</v>
       </c>
       <c r="U16" t="n">
-        <v>712.571742231019</v>
+        <v>890.5093156310303</v>
       </c>
       <c r="V16" t="n">
-        <v>457.8872540251322</v>
+        <v>635.8248274251434</v>
       </c>
       <c r="W16" t="n">
-        <v>168.4700839881716</v>
+        <v>346.4076573881829</v>
       </c>
       <c r="X16" t="n">
-        <v>51.60461630787939</v>
+        <v>346.4076573881829</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.60461630787939</v>
+        <v>346.4076573881829</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1667.771674554176</v>
+        <v>1485.562837813508</v>
       </c>
       <c r="C17" t="n">
-        <v>1515.656611233415</v>
+        <v>1485.562837813508</v>
       </c>
       <c r="D17" t="n">
-        <v>1157.390912626665</v>
+        <v>1127.297139206757</v>
       </c>
       <c r="E17" t="n">
-        <v>771.6026600284204</v>
+        <v>741.5088866085132</v>
       </c>
       <c r="F17" t="n">
-        <v>360.6167552388128</v>
+        <v>330.5229818189056</v>
       </c>
       <c r="G17" t="n">
-        <v>360.6167552388128</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="H17" t="n">
         <v>51.6046163078794</v>
@@ -5515,52 +5515,52 @@
         <v>51.6046163078794</v>
       </c>
       <c r="J17" t="n">
-        <v>147.6552094694165</v>
+        <v>315.0608584897695</v>
       </c>
       <c r="K17" t="n">
-        <v>342.348668316838</v>
+        <v>509.7543173371911</v>
       </c>
       <c r="L17" t="n">
-        <v>620.7848818482889</v>
+        <v>788.1905308686421</v>
       </c>
       <c r="M17" t="n">
-        <v>1199.887221070222</v>
+        <v>1129.673904781254</v>
       </c>
       <c r="N17" t="n">
-        <v>1838.494347880229</v>
+        <v>1481.29664507248</v>
       </c>
       <c r="O17" t="n">
-        <v>2157.186469442768</v>
+        <v>1799.988766635019</v>
       </c>
       <c r="P17" t="n">
-        <v>2394.681821134622</v>
+        <v>2184.489980381316</v>
       </c>
       <c r="Q17" t="n">
-        <v>2524.858192921927</v>
+        <v>2524.858192921928</v>
       </c>
       <c r="R17" t="n">
         <v>2580.23081539397</v>
       </c>
       <c r="S17" t="n">
-        <v>2444.51084659411</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="T17" t="n">
-        <v>2444.51084659411</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="U17" t="n">
-        <v>2444.51084659411</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="V17" t="n">
-        <v>2444.51084659411</v>
+        <v>2249.167928050399</v>
       </c>
       <c r="W17" t="n">
-        <v>2444.51084659411</v>
+        <v>2249.167928050399</v>
       </c>
       <c r="X17" t="n">
-        <v>2444.51084659411</v>
+        <v>1875.70216978932</v>
       </c>
       <c r="Y17" t="n">
-        <v>2054.371514618298</v>
+        <v>1485.562837813508</v>
       </c>
     </row>
     <row r="18">
@@ -5585,46 +5585,46 @@
         <v>314.1696816167432</v>
       </c>
       <c r="G18" t="n">
-        <v>177.2095051939487</v>
+        <v>177.2095051939484</v>
       </c>
       <c r="H18" t="n">
-        <v>80.94111120717116</v>
+        <v>80.94111120717119</v>
       </c>
       <c r="I18" t="n">
         <v>51.6046163078794</v>
       </c>
       <c r="J18" t="n">
-        <v>89.99384462546092</v>
+        <v>214.8239696124657</v>
       </c>
       <c r="K18" t="n">
-        <v>495.5825597339087</v>
+        <v>620.4126847209135</v>
       </c>
       <c r="L18" t="n">
-        <v>883.2272775650715</v>
+        <v>874.6356932236383</v>
       </c>
       <c r="M18" t="n">
-        <v>1182.228678755714</v>
+        <v>1173.637094414281</v>
       </c>
       <c r="N18" t="n">
-        <v>1503.552402245183</v>
+        <v>1494.96081790375</v>
       </c>
       <c r="O18" t="n">
-        <v>1775.281038354493</v>
+        <v>1766.68945401306</v>
       </c>
       <c r="P18" t="n">
-        <v>2289.312299562202</v>
+        <v>2280.720715220768</v>
       </c>
       <c r="Q18" t="n">
-        <v>2580.23081539397</v>
+        <v>2571.639231052537</v>
       </c>
       <c r="R18" t="n">
         <v>2580.23081539397</v>
       </c>
       <c r="S18" t="n">
-        <v>2439.702499318707</v>
+        <v>2439.702499318708</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.652862686368</v>
+        <v>2244.652862686369</v>
       </c>
       <c r="U18" t="n">
         <v>2016.545734488191</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.3315823984493</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="C19" t="n">
-        <v>815.3953994705424</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="D19" t="n">
-        <v>665.2787600582067</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="E19" t="n">
-        <v>517.3656664758136</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="F19" t="n">
-        <v>370.4757189779032</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="G19" t="n">
-        <v>202.2723136771754</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="H19" t="n">
         <v>51.6046163078794</v>
@@ -5673,10 +5673,10 @@
         <v>51.6046163078794</v>
       </c>
       <c r="J19" t="n">
-        <v>62.04130848727625</v>
+        <v>62.04130848727626</v>
       </c>
       <c r="K19" t="n">
-        <v>209.0288364767666</v>
+        <v>209.0288364767667</v>
       </c>
       <c r="L19" t="n">
         <v>452.6487008716009</v>
@@ -5706,19 +5706,19 @@
         <v>1426.016752712151</v>
       </c>
       <c r="U19" t="n">
-        <v>1426.016752712151</v>
+        <v>1136.886582091861</v>
       </c>
       <c r="V19" t="n">
-        <v>1426.016752712151</v>
+        <v>882.202093885974</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.016752712151</v>
+        <v>592.7849238490135</v>
       </c>
       <c r="X19" t="n">
-        <v>1386.772626372219</v>
+        <v>364.7953729509961</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.980047228689</v>
+        <v>144.002793807466</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1762.979668915983</v>
+        <v>1707.851721434446</v>
       </c>
       <c r="C20" t="n">
-        <v>1573.579294776268</v>
+        <v>1707.851721434446</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.579294776268</v>
+        <v>1349.586022827696</v>
       </c>
       <c r="E20" t="n">
-        <v>1187.791042178024</v>
+        <v>963.7977702294513</v>
       </c>
       <c r="F20" t="n">
-        <v>776.8051373884166</v>
+        <v>552.8118654398438</v>
       </c>
       <c r="G20" t="n">
-        <v>360.6167552388128</v>
+        <v>136.62348329024</v>
       </c>
       <c r="H20" t="n">
-        <v>51.6046163078794</v>
+        <v>136.62348329024</v>
       </c>
       <c r="I20" t="n">
         <v>51.6046163078794</v>
       </c>
       <c r="J20" t="n">
-        <v>147.6552094694165</v>
+        <v>315.0608584897695</v>
       </c>
       <c r="K20" t="n">
-        <v>342.348668316838</v>
+        <v>509.7543173371911</v>
       </c>
       <c r="L20" t="n">
-        <v>620.7848818482889</v>
+        <v>788.1905308686421</v>
       </c>
       <c r="M20" t="n">
-        <v>962.2682557609005</v>
+        <v>1129.673904781254</v>
       </c>
       <c r="N20" t="n">
-        <v>1600.875382570908</v>
+        <v>1481.29664507248</v>
       </c>
       <c r="O20" t="n">
-        <v>2157.186469442768</v>
+        <v>1799.988766635019</v>
       </c>
       <c r="P20" t="n">
-        <v>2394.681821134622</v>
+        <v>2184.489980381316</v>
       </c>
       <c r="Q20" t="n">
-        <v>2524.858192921927</v>
+        <v>2524.858192921928</v>
       </c>
       <c r="R20" t="n">
         <v>2580.23081539397</v>
@@ -5782,22 +5782,22 @@
         <v>2580.23081539397</v>
       </c>
       <c r="T20" t="n">
-        <v>2369.368075471829</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="U20" t="n">
-        <v>2115.748324186097</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="V20" t="n">
-        <v>2115.748324186097</v>
+        <v>2249.167928050399</v>
       </c>
       <c r="W20" t="n">
-        <v>1762.979668915983</v>
+        <v>1896.399272780285</v>
       </c>
       <c r="X20" t="n">
-        <v>1762.979668915983</v>
+        <v>1707.851721434446</v>
       </c>
       <c r="Y20" t="n">
-        <v>1762.979668915983</v>
+        <v>1707.851721434446</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>51.6046163078794</v>
       </c>
       <c r="J21" t="n">
-        <v>89.99384462546092</v>
+        <v>214.8239696124657</v>
       </c>
       <c r="K21" t="n">
-        <v>233.7619750914559</v>
+        <v>620.4126847209135</v>
       </c>
       <c r="L21" t="n">
-        <v>840.5304515978384</v>
+        <v>874.6356932236374</v>
       </c>
       <c r="M21" t="n">
-        <v>1338.604843867044</v>
+        <v>1173.63709441428</v>
       </c>
       <c r="N21" t="n">
-        <v>1659.928567356513</v>
+        <v>1494.960817903749</v>
       </c>
       <c r="O21" t="n">
-        <v>2298.535694166521</v>
+        <v>1766.689454013059</v>
       </c>
       <c r="P21" t="n">
-        <v>2497.288814420692</v>
+        <v>2280.720715220767</v>
       </c>
       <c r="Q21" t="n">
-        <v>2580.230815393969</v>
+        <v>2571.639231052536</v>
       </c>
       <c r="R21" t="n">
         <v>2580.230815393969</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1374.022084290426</v>
+        <v>496.5242968005186</v>
       </c>
       <c r="C22" t="n">
-        <v>1374.022084290426</v>
+        <v>496.5242968005186</v>
       </c>
       <c r="D22" t="n">
-        <v>1374.022084290426</v>
+        <v>346.4076573881829</v>
       </c>
       <c r="E22" t="n">
-        <v>1374.022084290426</v>
+        <v>198.4945638057898</v>
       </c>
       <c r="F22" t="n">
-        <v>1374.022084290426</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="G22" t="n">
-        <v>1205.818678989698</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="H22" t="n">
-        <v>1205.818678989698</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="I22" t="n">
-        <v>1205.818678989698</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J22" t="n">
-        <v>1216.255371169095</v>
+        <v>62.04130848727626</v>
       </c>
       <c r="K22" t="n">
-        <v>1363.242899158586</v>
+        <v>209.0288364767667</v>
       </c>
       <c r="L22" t="n">
-        <v>1606.86276355342</v>
+        <v>452.6487008716009</v>
       </c>
       <c r="M22" t="n">
-        <v>1874.11487562678</v>
+        <v>719.9008129449611</v>
       </c>
       <c r="N22" t="n">
-        <v>2140.446946234731</v>
+        <v>986.2328835529115</v>
       </c>
       <c r="O22" t="n">
-        <v>2370.431425021456</v>
+        <v>1216.217362339637</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.702195441057</v>
+        <v>1389.488132759237</v>
       </c>
       <c r="Q22" t="n">
-        <v>2580.23081539397</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="R22" t="n">
-        <v>2580.23081539397</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="S22" t="n">
-        <v>2580.23081539397</v>
+        <v>1303.061188355786</v>
       </c>
       <c r="T22" t="n">
-        <v>2356.325406532042</v>
+        <v>1303.061188355786</v>
       </c>
       <c r="U22" t="n">
-        <v>2067.195235911752</v>
+        <v>1013.931017735497</v>
       </c>
       <c r="V22" t="n">
-        <v>2067.195235911752</v>
+        <v>1013.931017735497</v>
       </c>
       <c r="W22" t="n">
-        <v>1777.778065874791</v>
+        <v>724.513847698536</v>
       </c>
       <c r="X22" t="n">
-        <v>1549.788514976774</v>
+        <v>496.5242968005186</v>
       </c>
       <c r="Y22" t="n">
-        <v>1374.022084290426</v>
+        <v>496.5242968005186</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2429.927345727457</v>
+        <v>2351.040303554816</v>
       </c>
       <c r="C23" t="n">
-        <v>2060.964828787045</v>
+        <v>1982.077786614404</v>
       </c>
       <c r="D23" t="n">
-        <v>1702.699130180295</v>
+        <v>1623.812088007654</v>
       </c>
       <c r="E23" t="n">
-        <v>1316.91087758205</v>
+        <v>1238.02383540941</v>
       </c>
       <c r="F23" t="n">
-        <v>905.9249727924428</v>
+        <v>827.0379306198022</v>
       </c>
       <c r="G23" t="n">
-        <v>489.7365906428389</v>
+        <v>410.8495484701983</v>
       </c>
       <c r="H23" t="n">
-        <v>180.7244517119055</v>
+        <v>101.8374095392649</v>
       </c>
       <c r="I23" t="n">
         <v>95.70558472954494</v>
       </c>
       <c r="J23" t="n">
-        <v>359.1618269114351</v>
+        <v>359.161826911436</v>
       </c>
       <c r="K23" t="n">
-        <v>874.7592442043092</v>
+        <v>874.7592442043106</v>
       </c>
       <c r="L23" t="n">
-        <v>1566.680060140707</v>
+        <v>1566.680060140708</v>
       </c>
       <c r="M23" t="n">
-        <v>2353.181832211223</v>
+        <v>2353.181832211224</v>
       </c>
       <c r="N23" t="n">
-        <v>3137.778027670313</v>
+        <v>3137.778027670314</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.46232868297</v>
+        <v>3833.462328682972</v>
       </c>
       <c r="P23" t="n">
-        <v>4389.538401464592</v>
+        <v>4389.538401464593</v>
       </c>
       <c r="Q23" t="n">
         <v>4729.906614005204</v>
@@ -6025,16 +6025,16 @@
         <v>4185.076776469515</v>
       </c>
       <c r="V23" t="n">
-        <v>3932.900931298585</v>
+        <v>3854.013889125944</v>
       </c>
       <c r="W23" t="n">
-        <v>3580.13227602847</v>
+        <v>3501.24523385583</v>
       </c>
       <c r="X23" t="n">
-        <v>3206.66651776739</v>
+        <v>3127.77947559475</v>
       </c>
       <c r="Y23" t="n">
-        <v>2816.527185791579</v>
+        <v>2737.640143618938</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>95.70558472954494</v>
       </c>
       <c r="J24" t="n">
-        <v>134.0948130471265</v>
+        <v>258.9249380341312</v>
       </c>
       <c r="K24" t="n">
-        <v>277.8629435131214</v>
+        <v>664.513653142579</v>
       </c>
       <c r="L24" t="n">
-        <v>884.6314200195038</v>
+        <v>918.7366616453025</v>
       </c>
       <c r="M24" t="n">
-        <v>1644.680834322646</v>
+        <v>1217.738062835945</v>
       </c>
       <c r="N24" t="n">
-        <v>1966.004557812115</v>
+        <v>1539.061786325414</v>
       </c>
       <c r="O24" t="n">
-        <v>2237.733193921425</v>
+        <v>1810.790422434724</v>
       </c>
       <c r="P24" t="n">
-        <v>2541.389782842357</v>
+        <v>2324.821683642433</v>
       </c>
       <c r="Q24" t="n">
-        <v>2624.331783815634</v>
+        <v>2615.740199474201</v>
       </c>
       <c r="R24" t="n">
         <v>2624.331783815634</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>550.2699562250684</v>
+        <v>184.9909325107334</v>
       </c>
       <c r="C25" t="n">
-        <v>506.1144601639088</v>
+        <v>184.9909325107334</v>
       </c>
       <c r="D25" t="n">
-        <v>355.997820751573</v>
+        <v>184.9909325107334</v>
       </c>
       <c r="E25" t="n">
-        <v>208.08472716918</v>
+        <v>184.9909325107334</v>
       </c>
       <c r="F25" t="n">
-        <v>208.08472716918</v>
+        <v>184.9909325107334</v>
       </c>
       <c r="G25" t="n">
-        <v>208.08472716918</v>
+        <v>95.70558472954494</v>
       </c>
       <c r="H25" t="n">
-        <v>208.08472716918</v>
+        <v>95.70558472954494</v>
       </c>
       <c r="I25" t="n">
         <v>95.70558472954494</v>
@@ -6177,22 +6177,22 @@
         <v>1470.117721133816</v>
       </c>
       <c r="T25" t="n">
-        <v>1470.117721133816</v>
+        <v>1246.212312271888</v>
       </c>
       <c r="U25" t="n">
-        <v>1470.117721133816</v>
+        <v>957.0821416515982</v>
       </c>
       <c r="V25" t="n">
-        <v>1470.117721133816</v>
+        <v>702.3976534457114</v>
       </c>
       <c r="W25" t="n">
-        <v>1180.700551096856</v>
+        <v>412.9804834087508</v>
       </c>
       <c r="X25" t="n">
-        <v>952.7110001988383</v>
+        <v>184.9909325107334</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.9184210553082</v>
+        <v>184.9909325107334</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>1393.20302541446</v>
       </c>
       <c r="D26" t="n">
-        <v>1296.890629043002</v>
+        <v>1034.937326807709</v>
       </c>
       <c r="E26" t="n">
-        <v>911.1023764447575</v>
+        <v>649.1490742094652</v>
       </c>
       <c r="F26" t="n">
-        <v>500.1164716551499</v>
+        <v>649.1490742094652</v>
       </c>
       <c r="G26" t="n">
-        <v>83.92808950554605</v>
+        <v>232.9606920598613</v>
       </c>
       <c r="H26" t="n">
-        <v>83.92808950554605</v>
+        <v>168.9469564879066</v>
       </c>
       <c r="I26" t="n">
         <v>83.92808950554605</v>
       </c>
       <c r="J26" t="n">
-        <v>179.9786826670831</v>
+        <v>347.3843316874361</v>
       </c>
       <c r="K26" t="n">
-        <v>695.5760999599578</v>
+        <v>862.9817489803108</v>
       </c>
       <c r="L26" t="n">
-        <v>1387.496915896355</v>
+        <v>1141.417962511762</v>
       </c>
       <c r="M26" t="n">
-        <v>2173.99868796687</v>
+        <v>1927.919734582278</v>
       </c>
       <c r="N26" t="n">
-        <v>2958.594883425961</v>
+        <v>2712.515930041368</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.279184438618</v>
+        <v>3408.200231054026</v>
       </c>
       <c r="P26" t="n">
-        <v>4066.228103489997</v>
+        <v>3964.276303835647</v>
       </c>
       <c r="Q26" t="n">
         <v>4196.404475277302</v>
@@ -6305,28 +6305,28 @@
         <v>83.92808950554605</v>
       </c>
       <c r="J27" t="n">
-        <v>122.3173178231276</v>
+        <v>247.1474428101323</v>
       </c>
       <c r="K27" t="n">
-        <v>527.9060329315754</v>
+        <v>652.7361579185801</v>
       </c>
       <c r="L27" t="n">
-        <v>1123.527265621228</v>
+        <v>892.372692574538</v>
       </c>
       <c r="M27" t="n">
-        <v>1422.52866681187</v>
+        <v>1191.37409376518</v>
       </c>
       <c r="N27" t="n">
-        <v>1743.852390301339</v>
+        <v>1512.697817254649</v>
       </c>
       <c r="O27" t="n">
-        <v>2015.581026410649</v>
+        <v>1799.012927210725</v>
       </c>
       <c r="P27" t="n">
-        <v>2529.612287618358</v>
+        <v>2313.044188418434</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.554288591636</v>
+        <v>2603.962704250202</v>
       </c>
       <c r="R27" t="n">
         <v>2612.554288591636</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3867.098447403236</v>
+        <v>697.7839529260922</v>
       </c>
       <c r="C28" t="n">
-        <v>3698.162264475329</v>
+        <v>528.8477699981853</v>
       </c>
       <c r="D28" t="n">
-        <v>3548.045625062994</v>
+        <v>378.7311305858495</v>
       </c>
       <c r="E28" t="n">
-        <v>3400.1325314806</v>
+        <v>230.8180370034564</v>
       </c>
       <c r="F28" t="n">
-        <v>3253.24258398269</v>
+        <v>83.92808950554605</v>
       </c>
       <c r="G28" t="n">
-        <v>3085.039178681962</v>
+        <v>83.92808950554605</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.371481312666</v>
+        <v>83.92808950554605</v>
       </c>
       <c r="I28" t="n">
-        <v>2821.992338873031</v>
+        <v>83.92808950554605</v>
       </c>
       <c r="J28" t="n">
-        <v>2832.429031052428</v>
+        <v>94.36478168494291</v>
       </c>
       <c r="K28" t="n">
-        <v>2979.416559041918</v>
+        <v>241.3523096744333</v>
       </c>
       <c r="L28" t="n">
-        <v>3223.036423436753</v>
+        <v>484.9721740692676</v>
       </c>
       <c r="M28" t="n">
-        <v>3490.288535510113</v>
+        <v>752.2242861426278</v>
       </c>
       <c r="N28" t="n">
-        <v>3756.620606118063</v>
+        <v>1018.556356750578</v>
       </c>
       <c r="O28" t="n">
-        <v>3986.605084904788</v>
+        <v>1248.540835537303</v>
       </c>
       <c r="P28" t="n">
-        <v>4159.875855324389</v>
+        <v>1421.811605956904</v>
       </c>
       <c r="Q28" t="n">
-        <v>4196.404475277302</v>
+        <v>1458.340225909817</v>
       </c>
       <c r="R28" t="n">
-        <v>4196.404475277302</v>
+        <v>1458.340225909817</v>
       </c>
       <c r="S28" t="n">
-        <v>4196.404475277302</v>
+        <v>1458.340225909817</v>
       </c>
       <c r="T28" t="n">
-        <v>4196.404475277302</v>
+        <v>1458.340225909817</v>
       </c>
       <c r="U28" t="n">
-        <v>4196.404475277302</v>
+        <v>1458.340225909817</v>
       </c>
       <c r="V28" t="n">
-        <v>4196.404475277302</v>
+        <v>1396.83913869131</v>
       </c>
       <c r="W28" t="n">
-        <v>4196.404475277302</v>
+        <v>1107.421968654349</v>
       </c>
       <c r="X28" t="n">
-        <v>3968.414924379285</v>
+        <v>879.4324177563319</v>
       </c>
       <c r="Y28" t="n">
-        <v>3968.414924379285</v>
+        <v>879.4324177563319</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1762.165542354872</v>
+        <v>2015.785293640603</v>
       </c>
       <c r="C29" t="n">
-        <v>1393.20302541446</v>
+        <v>1646.822776700192</v>
       </c>
       <c r="D29" t="n">
-        <v>1393.20302541446</v>
+        <v>1288.557078093441</v>
       </c>
       <c r="E29" t="n">
-        <v>1305.133382358051</v>
+        <v>902.7688254951968</v>
       </c>
       <c r="F29" t="n">
-        <v>894.1474775684439</v>
+        <v>491.7829207055892</v>
       </c>
       <c r="G29" t="n">
         <v>477.95909541884</v>
@@ -6463,25 +6463,25 @@
         <v>83.92808950554605</v>
       </c>
       <c r="J29" t="n">
-        <v>347.3843316874361</v>
+        <v>179.9786826670831</v>
       </c>
       <c r="K29" t="n">
-        <v>754.7417078813551</v>
+        <v>695.5760999599578</v>
       </c>
       <c r="L29" t="n">
-        <v>1033.177921412806</v>
+        <v>1387.496915896355</v>
       </c>
       <c r="M29" t="n">
-        <v>1819.679693483322</v>
+        <v>2173.99868796687</v>
       </c>
       <c r="N29" t="n">
-        <v>2604.275888942413</v>
+        <v>2958.594883425961</v>
       </c>
       <c r="O29" t="n">
-        <v>3299.96018995507</v>
+        <v>3654.279184438618</v>
       </c>
       <c r="P29" t="n">
-        <v>3856.036262736691</v>
+        <v>4066.228103489997</v>
       </c>
       <c r="Q29" t="n">
         <v>4196.404475277302</v>
@@ -6496,19 +6496,19 @@
         <v>3849.821766555302</v>
       </c>
       <c r="U29" t="n">
-        <v>3596.20201526957</v>
+        <v>3849.821766555302</v>
       </c>
       <c r="V29" t="n">
-        <v>3265.139127925999</v>
+        <v>3518.758879211731</v>
       </c>
       <c r="W29" t="n">
-        <v>2912.370472655885</v>
+        <v>3165.990223941616</v>
       </c>
       <c r="X29" t="n">
-        <v>2538.904714394805</v>
+        <v>2792.524465680537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2148.765382418993</v>
+        <v>2402.385133704725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>83.92808950554605</v>
       </c>
       <c r="J30" t="n">
-        <v>122.3173178231276</v>
+        <v>247.1474428101323</v>
       </c>
       <c r="K30" t="n">
-        <v>266.0854482891226</v>
+        <v>390.9155732761273</v>
       </c>
       <c r="L30" t="n">
-        <v>505.7219829450804</v>
+        <v>997.6840497825096</v>
       </c>
       <c r="M30" t="n">
-        <v>1265.771397248223</v>
+        <v>1296.685450973152</v>
       </c>
       <c r="N30" t="n">
-        <v>2059.130531254877</v>
+        <v>1618.009174462621</v>
       </c>
       <c r="O30" t="n">
-        <v>2330.859167364187</v>
+        <v>1889.737810571931</v>
       </c>
       <c r="P30" t="n">
-        <v>2529.612287618358</v>
+        <v>2403.76907177964</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.554288591636</v>
+        <v>2603.962704250202</v>
       </c>
       <c r="R30" t="n">
         <v>2612.554288591636</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.92808950554605</v>
+        <v>200.7935571858379</v>
       </c>
       <c r="C31" t="n">
-        <v>83.92808950554605</v>
+        <v>200.7935571858379</v>
       </c>
       <c r="D31" t="n">
-        <v>83.92808950554605</v>
+        <v>200.7935571858379</v>
       </c>
       <c r="E31" t="n">
-        <v>83.92808950554605</v>
+        <v>200.7935571858379</v>
       </c>
       <c r="F31" t="n">
-        <v>83.92808950554605</v>
+        <v>200.7935571858379</v>
       </c>
       <c r="G31" t="n">
         <v>83.92808950554605</v>
@@ -6648,25 +6648,25 @@
         <v>1458.340225909817</v>
       </c>
       <c r="S31" t="n">
-        <v>1369.054878128629</v>
+        <v>1257.930794910903</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.149469266701</v>
+        <v>1034.025386048975</v>
       </c>
       <c r="U31" t="n">
-        <v>856.0192986464109</v>
+        <v>744.8952154286853</v>
       </c>
       <c r="V31" t="n">
-        <v>601.3348104405241</v>
+        <v>490.2107272227985</v>
       </c>
       <c r="W31" t="n">
-        <v>311.9176404035634</v>
+        <v>200.7935571858379</v>
       </c>
       <c r="X31" t="n">
-        <v>83.92808950554605</v>
+        <v>200.7935571858379</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.92808950554605</v>
+        <v>200.7935571858379</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2418.149850503458</v>
+        <v>2333.130983521097</v>
       </c>
       <c r="C32" t="n">
-        <v>2049.187333563046</v>
+        <v>1964.168466580686</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.921634956296</v>
+        <v>1605.902767973935</v>
       </c>
       <c r="E32" t="n">
-        <v>1305.133382358051</v>
+        <v>1220.114515375691</v>
       </c>
       <c r="F32" t="n">
-        <v>894.1474775684439</v>
+        <v>809.1286105860834</v>
       </c>
       <c r="G32" t="n">
-        <v>477.95909541884</v>
+        <v>392.9402284364795</v>
       </c>
       <c r="H32" t="n">
-        <v>168.9469564879066</v>
+        <v>83.92808950554605</v>
       </c>
       <c r="I32" t="n">
         <v>83.92808950554605</v>
@@ -6703,25 +6703,25 @@
         <v>179.9786826670831</v>
       </c>
       <c r="K32" t="n">
-        <v>695.5760999599578</v>
+        <v>662.8766624544838</v>
       </c>
       <c r="L32" t="n">
-        <v>1387.496915896355</v>
+        <v>1354.797478390881</v>
       </c>
       <c r="M32" t="n">
-        <v>2173.99868796687</v>
+        <v>2141.299250461397</v>
       </c>
       <c r="N32" t="n">
-        <v>2958.594883425961</v>
+        <v>2925.895445920487</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.279184438618</v>
+        <v>3244.587567483027</v>
       </c>
       <c r="P32" t="n">
-        <v>4066.228103489997</v>
+        <v>3800.663640264648</v>
       </c>
       <c r="Q32" t="n">
-        <v>4196.404475277302</v>
+        <v>4141.031852805259</v>
       </c>
       <c r="R32" t="n">
         <v>4196.404475277302</v>
@@ -6730,22 +6730,22 @@
         <v>4196.404475277302</v>
       </c>
       <c r="T32" t="n">
-        <v>3985.541735355162</v>
+        <v>4196.404475277302</v>
       </c>
       <c r="U32" t="n">
-        <v>3985.541735355162</v>
+        <v>3942.784723991571</v>
       </c>
       <c r="V32" t="n">
-        <v>3654.478848011591</v>
+        <v>3611.721836648</v>
       </c>
       <c r="W32" t="n">
-        <v>3568.354780804471</v>
+        <v>3258.953181377886</v>
       </c>
       <c r="X32" t="n">
-        <v>3194.889022543392</v>
+        <v>2885.487423116806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2804.74969056758</v>
+        <v>2719.730823585219</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>83.92808950554605</v>
       </c>
       <c r="J33" t="n">
-        <v>122.3173178231276</v>
+        <v>218.6292021484551</v>
       </c>
       <c r="K33" t="n">
-        <v>266.0854482891226</v>
+        <v>362.3973326144501</v>
       </c>
       <c r="L33" t="n">
-        <v>505.7219829450804</v>
+        <v>969.1658091208325</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.25785716529</v>
+        <v>1729.215223423975</v>
       </c>
       <c r="N33" t="n">
-        <v>2059.130531254877</v>
+        <v>2050.538946913444</v>
       </c>
       <c r="O33" t="n">
-        <v>2330.859167364187</v>
+        <v>2322.267583022754</v>
       </c>
       <c r="P33" t="n">
-        <v>2529.612287618358</v>
+        <v>2521.020703276924</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.554288591636</v>
+        <v>2603.962704250202</v>
       </c>
       <c r="R33" t="n">
         <v>2612.554288591636</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>491.6663770358152</v>
+        <v>83.92808950554605</v>
       </c>
       <c r="C34" t="n">
-        <v>322.7301941079083</v>
+        <v>83.92808950554605</v>
       </c>
       <c r="D34" t="n">
-        <v>172.6135546955726</v>
+        <v>83.92808950554605</v>
       </c>
       <c r="E34" t="n">
         <v>83.92808950554605</v>
@@ -6882,28 +6882,28 @@
         <v>1458.340225909817</v>
       </c>
       <c r="R34" t="n">
-        <v>1346.002380769531</v>
+        <v>1458.340225909817</v>
       </c>
       <c r="S34" t="n">
-        <v>1346.002380769531</v>
+        <v>1458.340225909817</v>
       </c>
       <c r="T34" t="n">
-        <v>1122.096971907602</v>
+        <v>1234.434817047889</v>
       </c>
       <c r="U34" t="n">
-        <v>1122.096971907602</v>
+        <v>945.3046464275992</v>
       </c>
       <c r="V34" t="n">
-        <v>1122.096971907602</v>
+        <v>690.6201582217124</v>
       </c>
       <c r="W34" t="n">
-        <v>1122.096971907602</v>
+        <v>401.2029881847517</v>
       </c>
       <c r="X34" t="n">
-        <v>894.1074210095851</v>
+        <v>401.2029881847517</v>
       </c>
       <c r="Y34" t="n">
-        <v>673.314841866055</v>
+        <v>180.4104090412216</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1450.722988083922</v>
+        <v>1176.350805797204</v>
       </c>
       <c r="C35" t="n">
-        <v>1081.76047114351</v>
+        <v>807.3882888567921</v>
       </c>
       <c r="D35" t="n">
-        <v>723.4947725367595</v>
+        <v>807.3882888567921</v>
       </c>
       <c r="E35" t="n">
-        <v>337.7065199385152</v>
+        <v>421.6000362585478</v>
       </c>
       <c r="F35" t="n">
-        <v>337.7065199385152</v>
+        <v>421.6000362585478</v>
       </c>
       <c r="G35" t="n">
-        <v>337.7065199385152</v>
+        <v>136.6234832902399</v>
       </c>
       <c r="H35" t="n">
-        <v>51.60461630787939</v>
+        <v>136.6234832902399</v>
       </c>
       <c r="I35" t="n">
         <v>51.60461630787939</v>
@@ -6946,7 +6946,7 @@
         <v>620.7848818482889</v>
       </c>
       <c r="M35" t="n">
-        <v>1259.392008658296</v>
+        <v>1255.259843542264</v>
       </c>
       <c r="N35" t="n">
         <v>1893.866970352271</v>
@@ -6964,25 +6964,25 @@
         <v>2580.230815393969</v>
       </c>
       <c r="S35" t="n">
-        <v>2580.230815393969</v>
+        <v>2444.510846594109</v>
       </c>
       <c r="T35" t="n">
-        <v>2580.230815393969</v>
+        <v>2233.648106671968</v>
       </c>
       <c r="U35" t="n">
-        <v>2580.230815393969</v>
+        <v>2233.648106671968</v>
       </c>
       <c r="V35" t="n">
-        <v>2580.230815393969</v>
+        <v>1902.585219328398</v>
       </c>
       <c r="W35" t="n">
-        <v>2227.462160123855</v>
+        <v>1549.816564058284</v>
       </c>
       <c r="X35" t="n">
-        <v>2227.462160123855</v>
+        <v>1176.350805797204</v>
       </c>
       <c r="Y35" t="n">
-        <v>1837.322828148043</v>
+        <v>1176.350805797204</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>51.60461630787939</v>
       </c>
       <c r="J36" t="n">
-        <v>89.99384462546091</v>
+        <v>214.8239696124656</v>
       </c>
       <c r="K36" t="n">
-        <v>233.7619750914559</v>
+        <v>620.4126847209135</v>
       </c>
       <c r="L36" t="n">
-        <v>473.3985097474136</v>
+        <v>860.0492193768713</v>
       </c>
       <c r="M36" t="n">
-        <v>1112.005636557421</v>
+        <v>1159.050620567514</v>
       </c>
       <c r="N36" t="n">
-        <v>1750.612763367428</v>
+        <v>1480.374344056983</v>
       </c>
       <c r="O36" t="n">
-        <v>2298.535694166521</v>
+        <v>1766.689454013059</v>
       </c>
       <c r="P36" t="n">
-        <v>2497.288814420692</v>
+        <v>2280.720715220767</v>
       </c>
       <c r="Q36" t="n">
-        <v>2580.230815393969</v>
+        <v>2571.639231052536</v>
       </c>
       <c r="R36" t="n">
         <v>2580.230815393969</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.13223884788471</v>
+        <v>483.5876390447173</v>
       </c>
       <c r="C37" t="n">
-        <v>56.13223884788471</v>
+        <v>314.6514561168104</v>
       </c>
       <c r="D37" t="n">
-        <v>56.13223884788471</v>
+        <v>314.6514561168104</v>
       </c>
       <c r="E37" t="n">
-        <v>56.13223884788471</v>
+        <v>314.6514561168104</v>
       </c>
       <c r="F37" t="n">
-        <v>56.13223884788471</v>
+        <v>314.6514561168104</v>
       </c>
       <c r="G37" t="n">
-        <v>56.13223884788471</v>
+        <v>314.6514561168104</v>
       </c>
       <c r="H37" t="n">
-        <v>56.13223884788471</v>
+        <v>163.9837587475144</v>
       </c>
       <c r="I37" t="n">
         <v>51.60461630787939</v>
@@ -7131,16 +7131,16 @@
         <v>600.2338970907322</v>
       </c>
       <c r="V37" t="n">
-        <v>345.5494088848453</v>
+        <v>483.5876390447173</v>
       </c>
       <c r="W37" t="n">
-        <v>56.13223884788471</v>
+        <v>483.5876390447173</v>
       </c>
       <c r="X37" t="n">
-        <v>56.13223884788471</v>
+        <v>483.5876390447173</v>
       </c>
       <c r="Y37" t="n">
-        <v>56.13223884788471</v>
+        <v>483.5876390447173</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1087.844970785975</v>
+        <v>1473.633223384219</v>
       </c>
       <c r="C38" t="n">
-        <v>718.8824538455633</v>
+        <v>1104.670706443808</v>
       </c>
       <c r="D38" t="n">
-        <v>360.6167552388128</v>
+        <v>746.405007837057</v>
       </c>
       <c r="E38" t="n">
         <v>360.6167552388128</v>
@@ -7168,58 +7168,58 @@
         <v>360.6167552388128</v>
       </c>
       <c r="H38" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="I38" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J38" t="n">
         <v>147.6552094694165</v>
       </c>
       <c r="K38" t="n">
-        <v>663.2526267622911</v>
+        <v>342.348668316838</v>
       </c>
       <c r="L38" t="n">
-        <v>941.688840293742</v>
+        <v>980.9557951268456</v>
       </c>
       <c r="M38" t="n">
         <v>1542.244230061045</v>
       </c>
       <c r="N38" t="n">
-        <v>1893.866970352271</v>
+        <v>1893.866970352272</v>
       </c>
       <c r="O38" t="n">
-        <v>2212.55909191481</v>
+        <v>2212.559091914811</v>
       </c>
       <c r="P38" t="n">
         <v>2450.054443606664</v>
       </c>
       <c r="Q38" t="n">
-        <v>2580.230815393969</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="R38" t="n">
-        <v>2580.230815393969</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="S38" t="n">
-        <v>2580.230815393969</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="T38" t="n">
-        <v>2580.230815393969</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="U38" t="n">
-        <v>2569.112788430559</v>
+        <v>2326.611064108238</v>
       </c>
       <c r="V38" t="n">
-        <v>2238.049901086988</v>
+        <v>2326.611064108238</v>
       </c>
       <c r="W38" t="n">
-        <v>2238.049901086988</v>
+        <v>2326.611064108238</v>
       </c>
       <c r="X38" t="n">
-        <v>1864.584142825908</v>
+        <v>1953.145305847158</v>
       </c>
       <c r="Y38" t="n">
-        <v>1474.444810850097</v>
+        <v>1563.005973871347</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.329133537692</v>
+        <v>943.3291335376921</v>
       </c>
       <c r="C39" t="n">
-        <v>768.876104256565</v>
+        <v>768.8761042565651</v>
       </c>
       <c r="D39" t="n">
-        <v>619.9416945953137</v>
+        <v>619.9416945953139</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7042395898582</v>
+        <v>460.7042395898584</v>
       </c>
       <c r="F39" t="n">
-        <v>314.1696816167431</v>
+        <v>314.1696816167434</v>
       </c>
       <c r="G39" t="n">
-        <v>177.2095051939484</v>
+        <v>177.2095051939491</v>
       </c>
       <c r="H39" t="n">
-        <v>80.94111120717116</v>
+        <v>80.94111120717162</v>
       </c>
       <c r="I39" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J39" t="n">
-        <v>89.99384462546091</v>
+        <v>214.8239696124656</v>
       </c>
       <c r="K39" t="n">
-        <v>233.7619750914559</v>
+        <v>358.5921000784606</v>
       </c>
       <c r="L39" t="n">
-        <v>473.3985097474136</v>
+        <v>598.2286347344184</v>
       </c>
       <c r="M39" t="n">
-        <v>1112.005636557421</v>
+        <v>1236.835761544426</v>
       </c>
       <c r="N39" t="n">
-        <v>1750.612763367428</v>
+        <v>1558.159485033895</v>
       </c>
       <c r="O39" t="n">
-        <v>2289.944109825087</v>
+        <v>2196.766611843903</v>
       </c>
       <c r="P39" t="n">
-        <v>2488.697230079258</v>
+        <v>2395.519732098074</v>
       </c>
       <c r="Q39" t="n">
-        <v>2571.639231052536</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="R39" t="n">
-        <v>2580.230815393969</v>
+        <v>2580.23081539397</v>
       </c>
       <c r="S39" t="n">
-        <v>2439.702499318707</v>
+        <v>2439.702499318708</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.652862686368</v>
+        <v>2244.652862686369</v>
       </c>
       <c r="U39" t="n">
         <v>2016.545734488191</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.393626256448</v>
+        <v>1781.393626256449</v>
       </c>
       <c r="W39" t="n">
         <v>1527.156269528247</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>220.5407992357863</v>
+        <v>629.7448089154486</v>
       </c>
       <c r="C40" t="n">
-        <v>51.60461630787939</v>
+        <v>629.7448089154486</v>
       </c>
       <c r="D40" t="n">
-        <v>51.60461630787939</v>
+        <v>629.7448089154486</v>
       </c>
       <c r="E40" t="n">
-        <v>51.60461630787939</v>
+        <v>629.7448089154486</v>
       </c>
       <c r="F40" t="n">
-        <v>51.60461630787939</v>
+        <v>482.8548614175382</v>
       </c>
       <c r="G40" t="n">
-        <v>51.60461630787939</v>
+        <v>314.6514561168104</v>
       </c>
       <c r="H40" t="n">
-        <v>51.60461630787939</v>
+        <v>163.9837587475144</v>
       </c>
       <c r="I40" t="n">
-        <v>51.60461630787939</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J40" t="n">
         <v>62.04130848727625</v>
@@ -7356,28 +7356,28 @@
         <v>1426.016752712151</v>
       </c>
       <c r="R40" t="n">
-        <v>1313.678907571864</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="S40" t="n">
-        <v>1313.678907571864</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="T40" t="n">
-        <v>1313.678907571864</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="U40" t="n">
-        <v>1313.678907571864</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="V40" t="n">
-        <v>1058.994419365977</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="W40" t="n">
-        <v>769.5772493290165</v>
+        <v>1136.59958267519</v>
       </c>
       <c r="X40" t="n">
-        <v>541.5876984309991</v>
+        <v>908.6100317771727</v>
       </c>
       <c r="Y40" t="n">
-        <v>402.189264066026</v>
+        <v>687.8174526336426</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1430.025885092957</v>
+        <v>1213.776810512923</v>
       </c>
       <c r="C41" t="n">
-        <v>1061.063368152545</v>
+        <v>1187.791042178024</v>
       </c>
       <c r="D41" t="n">
-        <v>702.7976695457944</v>
+        <v>1187.791042178024</v>
       </c>
       <c r="E41" t="n">
-        <v>317.0094169475502</v>
+        <v>1187.791042178024</v>
       </c>
       <c r="F41" t="n">
-        <v>51.6046163078794</v>
+        <v>776.8051373884166</v>
       </c>
       <c r="G41" t="n">
-        <v>51.6046163078794</v>
+        <v>360.6167552388128</v>
       </c>
       <c r="H41" t="n">
         <v>51.6046163078794</v>
@@ -7411,28 +7411,28 @@
         <v>51.6046163078794</v>
       </c>
       <c r="J41" t="n">
-        <v>147.6552094694165</v>
+        <v>315.0608584897695</v>
       </c>
       <c r="K41" t="n">
-        <v>342.348668316838</v>
+        <v>509.7543173371911</v>
       </c>
       <c r="L41" t="n">
-        <v>620.7848818482889</v>
+        <v>788.1905308686421</v>
       </c>
       <c r="M41" t="n">
-        <v>1259.392008658297</v>
+        <v>1129.673904781254</v>
       </c>
       <c r="N41" t="n">
-        <v>1893.866970352272</v>
+        <v>1481.29664507248</v>
       </c>
       <c r="O41" t="n">
-        <v>2212.559091914811</v>
+        <v>1799.988766635019</v>
       </c>
       <c r="P41" t="n">
-        <v>2450.054443606664</v>
+        <v>2184.489980381316</v>
       </c>
       <c r="Q41" t="n">
-        <v>2580.23081539397</v>
+        <v>2524.858192921927</v>
       </c>
       <c r="R41" t="n">
         <v>2580.23081539397</v>
@@ -7444,19 +7444,19 @@
         <v>2580.23081539397</v>
       </c>
       <c r="U41" t="n">
-        <v>2580.23081539397</v>
+        <v>2326.611064108238</v>
       </c>
       <c r="V41" t="n">
-        <v>2580.23081539397</v>
+        <v>2326.611064108238</v>
       </c>
       <c r="W41" t="n">
-        <v>2580.23081539397</v>
+        <v>1973.842408838124</v>
       </c>
       <c r="X41" t="n">
-        <v>2206.76505713289</v>
+        <v>1600.376650577044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1816.625725157078</v>
+        <v>1600.376650577044</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3291335376921</v>
+        <v>943.329133537692</v>
       </c>
       <c r="C42" t="n">
-        <v>768.8761042565651</v>
+        <v>768.876104256565</v>
       </c>
       <c r="D42" t="n">
-        <v>619.9416945953139</v>
+        <v>619.9416945953137</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7042395898584</v>
+        <v>460.7042395898582</v>
       </c>
       <c r="F42" t="n">
-        <v>314.1696816167434</v>
+        <v>314.1696816167431</v>
       </c>
       <c r="G42" t="n">
-        <v>177.2095051939491</v>
+        <v>177.2095051939484</v>
       </c>
       <c r="H42" t="n">
-        <v>80.94111120717162</v>
+        <v>80.94111120717118</v>
       </c>
       <c r="I42" t="n">
         <v>51.6046163078794</v>
       </c>
       <c r="J42" t="n">
-        <v>89.99384462546092</v>
+        <v>214.8239696124656</v>
       </c>
       <c r="K42" t="n">
-        <v>233.7619750914559</v>
+        <v>358.5921000784606</v>
       </c>
       <c r="L42" t="n">
-        <v>473.3985097474137</v>
+        <v>598.2286347344184</v>
       </c>
       <c r="M42" t="n">
-        <v>1021.321440546506</v>
+        <v>1236.835761544426</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.928567356514</v>
+        <v>1875.442888354434</v>
       </c>
       <c r="O42" t="n">
-        <v>2298.535694166521</v>
+        <v>2147.171524463743</v>
       </c>
       <c r="P42" t="n">
-        <v>2497.288814420692</v>
+        <v>2345.924644717914</v>
       </c>
       <c r="Q42" t="n">
-        <v>2580.23081539397</v>
+        <v>2580.230815393969</v>
       </c>
       <c r="R42" t="n">
-        <v>2580.23081539397</v>
+        <v>2580.230815393969</v>
       </c>
       <c r="S42" t="n">
-        <v>2439.702499318708</v>
+        <v>2439.702499318707</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.652862686369</v>
+        <v>2244.652862686368</v>
       </c>
       <c r="U42" t="n">
         <v>2016.545734488191</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.393626256449</v>
+        <v>1781.393626256448</v>
       </c>
       <c r="W42" t="n">
         <v>1527.156269528247</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1353.731772572091</v>
+        <v>370.4757189779032</v>
       </c>
       <c r="C43" t="n">
-        <v>1353.731772572091</v>
+        <v>370.4757189779032</v>
       </c>
       <c r="D43" t="n">
-        <v>1353.731772572091</v>
+        <v>370.4757189779032</v>
       </c>
       <c r="E43" t="n">
-        <v>1205.818678989698</v>
+        <v>370.4757189779032</v>
       </c>
       <c r="F43" t="n">
-        <v>1205.818678989698</v>
+        <v>370.4757189779032</v>
       </c>
       <c r="G43" t="n">
-        <v>1205.818678989698</v>
+        <v>202.2723136771754</v>
       </c>
       <c r="H43" t="n">
-        <v>1205.818678989698</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="I43" t="n">
-        <v>1205.818678989698</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="J43" t="n">
-        <v>1216.255371169095</v>
+        <v>62.04130848727625</v>
       </c>
       <c r="K43" t="n">
-        <v>1363.242899158586</v>
+        <v>209.0288364767666</v>
       </c>
       <c r="L43" t="n">
-        <v>1606.86276355342</v>
+        <v>452.6487008716009</v>
       </c>
       <c r="M43" t="n">
-        <v>1874.11487562678</v>
+        <v>719.9008129449611</v>
       </c>
       <c r="N43" t="n">
-        <v>2140.446946234731</v>
+        <v>986.2328835529115</v>
       </c>
       <c r="O43" t="n">
-        <v>2370.431425021456</v>
+        <v>1216.217362339637</v>
       </c>
       <c r="P43" t="n">
-        <v>2543.702195441057</v>
+        <v>1389.488132759237</v>
       </c>
       <c r="Q43" t="n">
-        <v>2580.23081539397</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="R43" t="n">
-        <v>2467.892970253683</v>
+        <v>1313.678907571864</v>
       </c>
       <c r="S43" t="n">
-        <v>2267.483539254769</v>
+        <v>1138.482786082679</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.578130392841</v>
+        <v>914.5773772207507</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.447959772551</v>
+        <v>914.5773772207507</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.763471566664</v>
+        <v>659.8928890148638</v>
       </c>
       <c r="W43" t="n">
-        <v>1353.731772572091</v>
+        <v>370.4757189779032</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.731772572091</v>
+        <v>370.4757189779032</v>
       </c>
       <c r="Y43" t="n">
-        <v>1353.731772572091</v>
+        <v>370.4757189779032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>746.1943424792717</v>
+        <v>1296.196812772552</v>
       </c>
       <c r="C44" t="n">
-        <v>377.2318255388599</v>
+        <v>1296.196812772552</v>
       </c>
       <c r="D44" t="n">
-        <v>377.2318255388599</v>
+        <v>937.931114165802</v>
       </c>
       <c r="E44" t="n">
-        <v>377.2318255388599</v>
+        <v>861.8240043707772</v>
       </c>
       <c r="F44" t="n">
-        <v>377.2318255388599</v>
+        <v>861.8240043707772</v>
       </c>
       <c r="G44" t="n">
-        <v>51.6046163078794</v>
+        <v>445.6356222211734</v>
       </c>
       <c r="H44" t="n">
-        <v>51.6046163078794</v>
+        <v>136.62348329024</v>
       </c>
       <c r="I44" t="n">
         <v>51.6046163078794</v>
@@ -7657,10 +7657,10 @@
         <v>980.9557951268456</v>
       </c>
       <c r="M44" t="n">
-        <v>1542.244230061045</v>
+        <v>1322.439169039457</v>
       </c>
       <c r="N44" t="n">
-        <v>1893.866970352272</v>
+        <v>1674.061909330684</v>
       </c>
       <c r="O44" t="n">
         <v>2212.559091914811</v>
@@ -7675,25 +7675,25 @@
         <v>2580.23081539397</v>
       </c>
       <c r="S44" t="n">
-        <v>2580.23081539397</v>
+        <v>2444.51084659411</v>
       </c>
       <c r="T44" t="n">
-        <v>2580.23081539397</v>
+        <v>2233.648106671969</v>
       </c>
       <c r="U44" t="n">
-        <v>2580.23081539397</v>
+        <v>1980.028355386237</v>
       </c>
       <c r="V44" t="n">
-        <v>2249.167928050399</v>
+        <v>1648.965468042667</v>
       </c>
       <c r="W44" t="n">
-        <v>1896.399272780285</v>
+        <v>1296.196812772552</v>
       </c>
       <c r="X44" t="n">
-        <v>1522.933514519205</v>
+        <v>1296.196812772552</v>
       </c>
       <c r="Y44" t="n">
-        <v>1132.794182543393</v>
+        <v>1296.196812772552</v>
       </c>
     </row>
     <row r="45">
@@ -7727,43 +7727,43 @@
         <v>51.6046163078794</v>
       </c>
       <c r="J45" t="n">
-        <v>89.99384462546092</v>
+        <v>214.8239696124656</v>
       </c>
       <c r="K45" t="n">
-        <v>233.7619750914559</v>
+        <v>451.7695980596451</v>
       </c>
       <c r="L45" t="n">
-        <v>473.3985097474137</v>
+        <v>691.4061327156029</v>
       </c>
       <c r="M45" t="n">
-        <v>1064.330205952233</v>
+        <v>1330.01325952561</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.93733276224</v>
+        <v>1651.33698301508</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.66596887155</v>
+        <v>2289.944109825087</v>
       </c>
       <c r="P45" t="n">
-        <v>2488.697230079259</v>
+        <v>2488.697230079258</v>
       </c>
       <c r="Q45" t="n">
         <v>2571.639231052536</v>
       </c>
       <c r="R45" t="n">
-        <v>2580.23081539397</v>
+        <v>2580.230815393969</v>
       </c>
       <c r="S45" t="n">
-        <v>2439.702499318708</v>
+        <v>2439.702499318707</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.652862686369</v>
+        <v>2244.652862686368</v>
       </c>
       <c r="U45" t="n">
         <v>2016.545734488191</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.393626256449</v>
+        <v>1781.393626256448</v>
       </c>
       <c r="W45" t="n">
         <v>1527.156269528247</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>367.4307467336967</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="C46" t="n">
-        <v>198.4945638057898</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="D46" t="n">
-        <v>198.4945638057898</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="E46" t="n">
-        <v>198.4945638057898</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="F46" t="n">
         <v>51.6046163078794</v>
@@ -7830,28 +7830,28 @@
         <v>1426.016752712151</v>
       </c>
       <c r="R46" t="n">
-        <v>1313.678907571864</v>
+        <v>1426.016752712151</v>
       </c>
       <c r="S46" t="n">
-        <v>1113.26947657295</v>
+        <v>1225.607321713237</v>
       </c>
       <c r="T46" t="n">
-        <v>889.364067711022</v>
+        <v>1001.701912851309</v>
       </c>
       <c r="U46" t="n">
-        <v>600.2338970907322</v>
+        <v>823.6958254487441</v>
       </c>
       <c r="V46" t="n">
-        <v>549.0792115639364</v>
+        <v>569.0113372428573</v>
       </c>
       <c r="W46" t="n">
-        <v>549.0792115639364</v>
+        <v>279.5941672058967</v>
       </c>
       <c r="X46" t="n">
-        <v>549.0792115639364</v>
+        <v>51.6046163078794</v>
       </c>
       <c r="Y46" t="n">
-        <v>549.0792115639364</v>
+        <v>51.6046163078794</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,7 +8072,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>363.8090033116732</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>222.0253141632197</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>148.4907697519625</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>9.784477982030154</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>144.2147326882265</v>
       </c>
       <c r="M12" t="n">
-        <v>343.0360864842071</v>
+        <v>343.0360864842073</v>
       </c>
       <c r="N12" t="n">
-        <v>320.4882861823619</v>
+        <v>320.488286182362</v>
       </c>
       <c r="O12" t="n">
-        <v>270.3057680286353</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>363.8090033116732</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>222.0253141632199</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>148.4907697519625</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>9.784477982030154</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>14.73381196643089</v>
       </c>
       <c r="M15" t="n">
-        <v>253.205394773458</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>36.84330178967078</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>240.0191568781021</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>289.8832187058393</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>148.4907697519629</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>149.5032153284899</v>
+        <v>14.73381196643135</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>36.84330178967078</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9412,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>289.8832187058394</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>240.0191568781019</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>148.4907697519629</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>14.73381196643044</v>
       </c>
       <c r="M21" t="n">
-        <v>201.0838293722862</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>370.5843340411087</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>36.84330178967078</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>14.7338119664301</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>105.9630996633948</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>36.84330178967078</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9892,10 +9892,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>176.2157246055808</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>102.9816158124747</v>
       </c>
       <c r="R26" t="n">
         <v>9.784477982030154</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>359.5805030643382</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>14.73381196643015</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>36.84330178967078</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>214.8120377237347</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10129,10 +10129,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>176.2157246055808</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>9.784477982030154</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>476.8034449668543</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>118.4359914113984</v>
       </c>
       <c r="R30" t="n">
-        <v>36.84330178967078</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>291.1156777171506</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10363,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>176.2157246055808</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>9.784477982030154</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>97.28473164174497</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>463.1661343733005</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>36.84330178967078</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>300.1250029266624</v>
+        <v>295.9510987690537</v>
       </c>
       <c r="N35" t="n">
-        <v>285.7093145482306</v>
+        <v>289.8832187058393</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>343.0360864842071</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>320.4882861823619</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>278.9841360502854</v>
+        <v>14.73381196643038</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>36.84330178967078</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>363.8090033116733</v>
       </c>
       <c r="M38" t="n">
-        <v>261.6889049037283</v>
+        <v>222.0253141632201</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>343.0360864842071</v>
+        <v>343.0360864842072</v>
       </c>
       <c r="N39" t="n">
-        <v>320.4882861823619</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>270.3057680286353</v>
+        <v>370.5843340411087</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>102.7970528511297</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>36.84330178967078</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>300.1250029266625</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>285.7093145482308</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>148.4907697519625</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>9.784477982030154</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,19 +11147,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>251.4358884933839</v>
+        <v>343.0360864842072</v>
       </c>
       <c r="N42" t="n">
         <v>320.488286182362</v>
       </c>
       <c r="O42" t="n">
-        <v>370.5843340411087</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.8931007098761</v>
       </c>
       <c r="R42" t="n">
         <v>36.84330178967078</v>
@@ -11305,13 +11305,13 @@
         <v>363.8090033116733</v>
       </c>
       <c r="M44" t="n">
-        <v>222.0253141632201</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>222.0253141632199</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>94.11868482947924</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>294.8790858729054</v>
+        <v>343.0360864842073</v>
       </c>
       <c r="N45" t="n">
-        <v>320.488286182362</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>370.5843340411087</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>296.6473023521384</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.0264983281078</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.3961495776999</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>134.3627691118613</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>135.932398007366</v>
+        <v>166.5213712477205</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.1610203956031</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>111.2553510152387</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>111.2144666888838</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>198.4053366889246</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>130.1921590487184</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>201.4687498158628</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>305.9220175416241</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.3627691118613</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>208.7541125229195</v>
@@ -23554,13 +23554,13 @@
         <v>251.0835537728743</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>271.0635571752723</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.5213712477205</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>111.2144666888838</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>65.70630958158623</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.6663547733089</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>110.0128423855479</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>214.6789790834539</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.0264983281078</v>
+        <v>135.8973164721918</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>305.9220175416241</v>
       </c>
       <c r="I17" t="n">
         <v>84.16867831253694</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>134.3627691118613</v>
       </c>
       <c r="T17" t="n">
         <v>208.7541125229195</v>
@@ -23791,13 +23791,13 @@
         <v>251.0835537728743</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>88.35778445734655</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5213712477205</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>149.1610203956031</v>
       </c>
       <c r="I19" t="n">
         <v>111.2553510152387</v>
@@ -23946,16 +23946,16 @@
         <v>221.6663547733089</v>
       </c>
       <c r="U19" t="n">
-        <v>286.238868914087</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>186.8579703125048</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>177.7665213726899</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>305.9220175416241</v>
       </c>
       <c r="I20" t="n">
-        <v>84.16867831253694</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>134.3627691118613</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.7541125229195</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0835537728743</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>183.0690248460881</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5213712477205</v>
       </c>
       <c r="H22" t="n">
         <v>149.1610203956031</v>
@@ -24177,10 +24177,10 @@
         <v>111.2144666888838</v>
       </c>
       <c r="S22" t="n">
-        <v>198.4053366889246</v>
+        <v>76.67932797612406</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.6663547733089</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.5758869726107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.09817175091416</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>78.09817175091405</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>123.5328799980798</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5213712477205</v>
+        <v>78.1288769443439</v>
       </c>
       <c r="H25" t="n">
         <v>149.1610203956031</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>111.2553510152387</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>198.4053366889246</v>
       </c>
       <c r="T25" t="n">
-        <v>221.6663547733089</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.238868914087</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>259.3337692129394</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>305.9220175416241</v>
+        <v>242.5484193253889</v>
       </c>
       <c r="I26" t="n">
-        <v>84.16867831253694</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.52866797564857</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5213712477205</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>149.1610203956031</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>111.2553510152387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>286.238868914087</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>191.2515669775057</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>294.7414234464173</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3409112942261</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0835537728743</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5213712477205</v>
+        <v>50.82455824423162</v>
       </c>
       <c r="H31" t="n">
         <v>149.1610203956031</v>
@@ -24888,7 +24888,7 @@
         <v>111.2144666888838</v>
       </c>
       <c r="S31" t="n">
-        <v>110.0128423855483</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>84.16867831253694</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>134.3627691118613</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7541125229195</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0835537728743</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>263.9781421823648</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>222.1389051197827</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>84.31448384161847</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>58.63535210844287</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>111.2144666888838</v>
       </c>
       <c r="S34" t="n">
         <v>198.4053366889246</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.238868914087</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.0264983281078</v>
+        <v>129.8997108894829</v>
       </c>
       <c r="H35" t="n">
-        <v>22.68113294729466</v>
+        <v>305.9220175416241</v>
       </c>
       <c r="I35" t="n">
-        <v>84.16867831253694</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>134.3627691118613</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7541125229195</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.0835537728743</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>166.5213712477205</v>
       </c>
       <c r="H37" t="n">
-        <v>149.1610203956031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>106.7730047006334</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>136.6578478582733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>294.2548186812244</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25447,10 +25447,10 @@
         <v>208.7541125229195</v>
       </c>
       <c r="U38" t="n">
-        <v>240.0767070790983</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>122.3400629009253</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5213712477205</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>149.1610203956031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>111.2553510152387</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>111.2144666888838</v>
       </c>
       <c r="S40" t="n">
         <v>198.4053366889246</v>
@@ -25608,7 +25608,7 @@
         <v>286.238868914087</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.58020333077141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>339.5469811194581</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>144.1252931084374</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.0264983281078</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>305.9220175416241</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>84.16867831253694</v>
@@ -25684,19 +25684,19 @@
         <v>208.7541125229195</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0835537728743</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5213712477205</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>149.1610203956031</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>111.2553510152387</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>24.96117641463138</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.238868914087</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>141.9516163319638</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>306.5843313751872</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>89.65556118943704</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>305.9220175416241</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>84.16867831253694</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>134.3627691118613</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7541125229195</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0835537728743</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.5213712477205</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>111.2144666888838</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>110.0128423855479</v>
       </c>
       <c r="V46" t="n">
-        <v>201.4945046523002</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>706031.1553553689</v>
+        <v>706031.155355369</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>706031.1553553689</v>
+        <v>706031.155355369</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>706031.155355369</v>
+        <v>706031.1553553689</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>706031.1553553689</v>
+        <v>706031.155355369</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>706031.155355369</v>
+        <v>706031.1553553689</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>706031.1553553689</v>
+        <v>706031.155355369</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>378019.1728575527</v>
+        <v>378019.1728575526</v>
       </c>
       <c r="F2" t="n">
+        <v>378019.1728575525</v>
+      </c>
+      <c r="G2" t="n">
         <v>378019.1728575526</v>
-      </c>
-      <c r="G2" t="n">
-        <v>378019.1728575525</v>
       </c>
       <c r="H2" t="n">
         <v>378019.1728575527</v>
@@ -26340,22 +26340,22 @@
         <v>456027.7541772883</v>
       </c>
       <c r="K2" t="n">
-        <v>456027.7541772884</v>
+        <v>456027.7541772883</v>
       </c>
       <c r="L2" t="n">
-        <v>456027.7541772883</v>
+        <v>456027.7541772885</v>
       </c>
       <c r="M2" t="n">
-        <v>378019.1728575525</v>
+        <v>378019.1728575526</v>
       </c>
       <c r="N2" t="n">
         <v>378019.1728575525</v>
       </c>
       <c r="O2" t="n">
-        <v>378019.1728575522</v>
+        <v>378019.1728575525</v>
       </c>
       <c r="P2" t="n">
-        <v>378019.1728575524</v>
+        <v>378019.1728575527</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>146592.1702957216</v>
+        <v>146592.1702957215</v>
       </c>
       <c r="J3" t="n">
-        <v>24541.05559425664</v>
+        <v>24541.0555942568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>26114.03555656523</v>
+        <v>26114.03555656524</v>
       </c>
       <c r="F4" t="n">
-        <v>26114.03555656523</v>
+        <v>26114.03555656524</v>
       </c>
       <c r="G4" t="n">
         <v>26114.03555656525</v>
@@ -26438,7 +26438,7 @@
         <v>26114.03555656524</v>
       </c>
       <c r="I4" t="n">
-        <v>65468.16283234023</v>
+        <v>65468.16283234021</v>
       </c>
       <c r="J4" t="n">
         <v>54958.34722912134</v>
@@ -26447,16 +26447,16 @@
         <v>54958.34722912134</v>
       </c>
       <c r="L4" t="n">
-        <v>54958.34722912134</v>
+        <v>54958.34722912133</v>
       </c>
       <c r="M4" t="n">
         <v>26114.03555656523</v>
       </c>
       <c r="N4" t="n">
+        <v>26114.03555656524</v>
+      </c>
+      <c r="O4" t="n">
         <v>26114.03555656523</v>
-      </c>
-      <c r="O4" t="n">
-        <v>26114.03555656524</v>
       </c>
       <c r="P4" t="n">
         <v>26114.03555656524</v>
@@ -26484,10 +26484,10 @@
         <v>56985.73444544048</v>
       </c>
       <c r="G5" t="n">
-        <v>56985.73444544048</v>
+        <v>56985.7344454405</v>
       </c>
       <c r="H5" t="n">
-        <v>56985.73444544048</v>
+        <v>56985.7344454405</v>
       </c>
       <c r="I5" t="n">
         <v>90502.47044590629</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29667.13859295828</v>
+        <v>29667.13859295822</v>
       </c>
       <c r="C6" t="n">
-        <v>110436.570124506</v>
+        <v>110436.5701245061</v>
       </c>
       <c r="D6" t="n">
         <v>110436.570124506</v>
       </c>
       <c r="E6" t="n">
-        <v>-480463.9943039634</v>
+        <v>-485869.2716362685</v>
       </c>
       <c r="F6" t="n">
-        <v>294919.4028555469</v>
+        <v>289514.1255232418</v>
       </c>
       <c r="G6" t="n">
-        <v>294919.4028555468</v>
+        <v>289514.1255232418</v>
       </c>
       <c r="H6" t="n">
-        <v>294919.4028555469</v>
+        <v>289514.1255232421</v>
       </c>
       <c r="I6" t="n">
-        <v>181888.4336958005</v>
+        <v>180740.4389399843</v>
       </c>
       <c r="J6" t="n">
-        <v>294976.7772782433</v>
+        <v>292691.8431987275</v>
       </c>
       <c r="K6" t="n">
-        <v>319517.8328724999</v>
+        <v>317232.8987929842</v>
       </c>
       <c r="L6" t="n">
-        <v>319517.8328724998</v>
+        <v>317232.8987929845</v>
       </c>
       <c r="M6" t="n">
-        <v>294919.4028555468</v>
+        <v>289514.1255232419</v>
       </c>
       <c r="N6" t="n">
-        <v>294919.4028555469</v>
+        <v>289514.1255232418</v>
       </c>
       <c r="O6" t="n">
-        <v>294919.4028555466</v>
+        <v>289514.1255232419</v>
       </c>
       <c r="P6" t="n">
-        <v>294919.4028555467</v>
+        <v>289514.125523242</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>645.0577038484923</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="F4" t="n">
-        <v>645.0577038484923</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="G4" t="n">
-        <v>645.0577038484925</v>
+        <v>645.0577038484926</v>
       </c>
       <c r="H4" t="n">
-        <v>645.0577038484925</v>
+        <v>645.0577038484926</v>
       </c>
       <c r="I4" t="n">
         <v>1196.319809119312</v>
@@ -26825,7 +26825,7 @@
         <v>645.0577038484923</v>
       </c>
       <c r="N4" t="n">
-        <v>645.0577038484923</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="O4" t="n">
         <v>645.0577038484925</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>551.2621052708193</v>
+        <v>551.2621052708191</v>
       </c>
       <c r="J4" t="n">
-        <v>93.79559857767286</v>
+        <v>93.79559857767346</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463981</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>308.7646895842778</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>24.76911442513236</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>229.0510069249066</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>336.5320379404362</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>330.9434728411245</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>31.40269881826603</v>
       </c>
       <c r="Y6" t="n">
-        <v>191.3930290851075</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>42.30927575296769</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>186.2617493458958</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,19 +27934,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.30032809334998</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>33.53529036099013</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>124.3999708738849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>97.02080117326977</v>
+        <v>266.1174163453435</v>
       </c>
       <c r="K11" t="n">
         <v>196.66005944184</v>
       </c>
       <c r="L11" t="n">
-        <v>645.0577038484923</v>
+        <v>281.2487005368192</v>
       </c>
       <c r="M11" t="n">
         <v>344.9327009218299</v>
@@ -35424,16 +35424,16 @@
         <v>355.1744851426531</v>
       </c>
       <c r="O11" t="n">
-        <v>543.9365480647745</v>
+        <v>321.9112339015547</v>
       </c>
       <c r="P11" t="n">
-        <v>239.8942946382361</v>
+        <v>388.3850643901986</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.4912846336419</v>
+        <v>343.8062752935466</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>55.93194189095229</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K12" t="n">
         <v>145.2203338040354</v>
       </c>
       <c r="L12" t="n">
-        <v>242.0571057130887</v>
+        <v>386.2718384013152</v>
       </c>
       <c r="M12" t="n">
-        <v>645.0577038484923</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="N12" t="n">
-        <v>645.0577038484923</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="O12" t="n">
-        <v>544.779137836019</v>
+        <v>274.4733698073837</v>
       </c>
       <c r="P12" t="n">
         <v>200.7607275294657</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>97.02080117326977</v>
+        <v>266.1174163453435</v>
       </c>
       <c r="K14" t="n">
         <v>196.66005944184</v>
       </c>
       <c r="L14" t="n">
-        <v>645.0577038484923</v>
+        <v>281.2487005368192</v>
       </c>
       <c r="M14" t="n">
         <v>344.9327009218299</v>
       </c>
       <c r="N14" t="n">
-        <v>577.1997993058729</v>
+        <v>355.1744851426531</v>
       </c>
       <c r="O14" t="n">
         <v>321.9112339015547</v>
       </c>
       <c r="P14" t="n">
-        <v>239.8942946382361</v>
+        <v>388.3850643901986</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.4912846336419</v>
+        <v>343.8062752935466</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>55.93194189095229</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K15" t="n">
-        <v>145.2203338040354</v>
+        <v>409.685570816614</v>
       </c>
       <c r="L15" t="n">
-        <v>612.8974510165478</v>
+        <v>256.7909176795196</v>
       </c>
       <c r="M15" t="n">
-        <v>555.2270121377433</v>
+        <v>302.0216173642852</v>
       </c>
       <c r="N15" t="n">
         <v>324.5694176661304</v>
@@ -35746,10 +35746,10 @@
         <v>519.2234961694028</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.77979896290668</v>
+        <v>293.8570866987558</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.678368021650044</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>97.02080117326977</v>
+        <v>266.1174163453435</v>
       </c>
       <c r="K17" t="n">
         <v>196.66005944184</v>
@@ -35892,19 +35892,19 @@
         <v>281.2487005368192</v>
       </c>
       <c r="M17" t="n">
-        <v>584.951857799932</v>
+        <v>344.9327009218299</v>
       </c>
       <c r="N17" t="n">
-        <v>645.0577038484925</v>
+        <v>355.1744851426531</v>
       </c>
       <c r="O17" t="n">
         <v>321.9112339015547</v>
       </c>
       <c r="P17" t="n">
-        <v>239.8942946382361</v>
+        <v>388.385064390199</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.4912846336419</v>
+        <v>343.8062752935466</v>
       </c>
       <c r="R17" t="n">
         <v>55.93194189095229</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K18" t="n">
         <v>409.685570816614</v>
       </c>
       <c r="L18" t="n">
-        <v>391.5603210415786</v>
+        <v>256.79091767952</v>
       </c>
       <c r="M18" t="n">
         <v>302.0216173642852</v>
@@ -35986,7 +35986,7 @@
         <v>293.8570866987558</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>8.678368021650044</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>97.02080117326977</v>
+        <v>266.1174163453435</v>
       </c>
       <c r="K20" t="n">
         <v>196.66005944184</v>
@@ -36132,16 +36132,16 @@
         <v>344.9327009218299</v>
       </c>
       <c r="N20" t="n">
-        <v>645.0577038484925</v>
+        <v>355.1744851426531</v>
       </c>
       <c r="O20" t="n">
-        <v>561.9303907796566</v>
+        <v>321.9112339015547</v>
       </c>
       <c r="P20" t="n">
-        <v>239.8942946382361</v>
+        <v>388.385064390199</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.4912846336419</v>
+        <v>343.8062752935466</v>
       </c>
       <c r="R20" t="n">
         <v>55.93194189095229</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K21" t="n">
-        <v>145.2203338040354</v>
+        <v>409.685570816614</v>
       </c>
       <c r="L21" t="n">
-        <v>612.8974510165478</v>
+        <v>256.7909176795191</v>
       </c>
       <c r="M21" t="n">
-        <v>503.1054467365715</v>
+        <v>302.0216173642852</v>
       </c>
       <c r="N21" t="n">
         <v>324.5694176661304</v>
       </c>
       <c r="O21" t="n">
-        <v>645.0577038484925</v>
+        <v>274.4733698073837</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7607275294657</v>
+        <v>519.2234961694028</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.77979896290668</v>
+        <v>293.8570866987558</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.678368021650044</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K24" t="n">
-        <v>145.2203338040354</v>
+        <v>409.685570816614</v>
       </c>
       <c r="L24" t="n">
-        <v>612.8974510165478</v>
+        <v>256.7909176795188</v>
       </c>
       <c r="M24" t="n">
-        <v>767.7266811142852</v>
+        <v>302.0216173642852</v>
       </c>
       <c r="N24" t="n">
         <v>324.5694176661304</v>
@@ -36454,13 +36454,13 @@
         <v>274.4733698073837</v>
       </c>
       <c r="P24" t="n">
-        <v>306.7238271928605</v>
+        <v>519.2234961694028</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.77979896290668</v>
+        <v>293.8570866987558</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>8.678368021650044</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>97.02080117326977</v>
+        <v>266.1174163453435</v>
       </c>
       <c r="K26" t="n">
         <v>520.8054720130046</v>
       </c>
       <c r="L26" t="n">
-        <v>698.9099150872696</v>
+        <v>281.2487005368192</v>
       </c>
       <c r="M26" t="n">
         <v>794.4462344146624</v>
@@ -36612,10 +36612,10 @@
         <v>702.7114151643001</v>
       </c>
       <c r="P26" t="n">
-        <v>416.1100192438169</v>
+        <v>561.6930028097188</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.4912846336419</v>
+        <v>234.4729004461166</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K27" t="n">
         <v>409.685570816614</v>
       </c>
       <c r="L27" t="n">
-        <v>601.6376087774269</v>
+        <v>242.0571057130887</v>
       </c>
       <c r="M27" t="n">
         <v>302.0216173642852</v>
@@ -36688,16 +36688,16 @@
         <v>324.5694176661304</v>
       </c>
       <c r="O27" t="n">
-        <v>274.4733698073837</v>
+        <v>289.2071817738139</v>
       </c>
       <c r="P27" t="n">
         <v>519.2234961694028</v>
       </c>
       <c r="Q27" t="n">
-        <v>83.77979896290668</v>
+        <v>293.8570866987558</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>8.678368021650044</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>266.1174163453435</v>
+        <v>97.02080117326977</v>
       </c>
       <c r="K29" t="n">
-        <v>411.4720971655747</v>
+        <v>520.8054720130046</v>
       </c>
       <c r="L29" t="n">
-        <v>281.2487005368192</v>
+        <v>698.9099150872696</v>
       </c>
       <c r="M29" t="n">
         <v>794.4462344146624</v>
@@ -36849,10 +36849,10 @@
         <v>702.7114151643001</v>
       </c>
       <c r="P29" t="n">
-        <v>561.6930028097188</v>
+        <v>416.1100192438169</v>
       </c>
       <c r="Q29" t="n">
-        <v>343.8062752935466</v>
+        <v>131.4912846336419</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K30" t="n">
         <v>145.2203338040354</v>
       </c>
       <c r="L30" t="n">
-        <v>242.0571057130887</v>
+        <v>612.8974510165478</v>
       </c>
       <c r="M30" t="n">
-        <v>767.7266811142852</v>
+        <v>302.0216173642852</v>
       </c>
       <c r="N30" t="n">
-        <v>801.3728626329847</v>
+        <v>324.5694176661304</v>
       </c>
       <c r="O30" t="n">
         <v>274.4733698073837</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7607275294657</v>
+        <v>519.2234961694028</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.77979896290668</v>
+        <v>202.2157903743051</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.678368021650044</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>97.02080117326977</v>
       </c>
       <c r="K32" t="n">
-        <v>520.8054720130046</v>
+        <v>487.7757371589906</v>
       </c>
       <c r="L32" t="n">
         <v>698.9099150872696</v>
@@ -37083,16 +37083,16 @@
         <v>792.5214095546372</v>
       </c>
       <c r="O32" t="n">
-        <v>702.7114151643001</v>
+        <v>321.9112339015547</v>
       </c>
       <c r="P32" t="n">
-        <v>416.1100192438169</v>
+        <v>561.6930028097188</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.4912846336419</v>
+        <v>343.8062752935466</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.93194189095229</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>38.77699830058739</v>
+        <v>136.0617299423324</v>
       </c>
       <c r="K33" t="n">
         <v>145.2203338040354</v>
       </c>
       <c r="L33" t="n">
-        <v>242.0571057130887</v>
+        <v>612.8974510165478</v>
       </c>
       <c r="M33" t="n">
-        <v>765.1877517375857</v>
+        <v>767.7266811142852</v>
       </c>
       <c r="N33" t="n">
-        <v>803.9117920096839</v>
+        <v>324.5694176661304</v>
       </c>
       <c r="O33" t="n">
         <v>274.4733698073837</v>
@@ -37171,7 +37171,7 @@
         <v>83.77979896290668</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>8.678368021650044</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>281.2487005368192</v>
       </c>
       <c r="M35" t="n">
+        <v>640.8837996908836</v>
+      </c>
+      <c r="N35" t="n">
         <v>645.0577038484923</v>
-      </c>
-      <c r="N35" t="n">
-        <v>640.8837996908836</v>
       </c>
       <c r="O35" t="n">
         <v>321.9112339015547</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K36" t="n">
-        <v>145.2203338040354</v>
+        <v>409.685570816614</v>
       </c>
       <c r="L36" t="n">
         <v>242.0571057130887</v>
       </c>
       <c r="M36" t="n">
-        <v>645.0577038484923</v>
+        <v>302.0216173642852</v>
       </c>
       <c r="N36" t="n">
-        <v>645.0577038484923</v>
+        <v>324.5694176661304</v>
       </c>
       <c r="O36" t="n">
-        <v>553.4575058576692</v>
+        <v>289.2071817738141</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7607275294657</v>
+        <v>519.2234961694028</v>
       </c>
       <c r="Q36" t="n">
-        <v>83.77979896290668</v>
+        <v>293.8570866987558</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>8.678368021650044</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>97.02080117326977</v>
       </c>
       <c r="K38" t="n">
-        <v>520.8054720130046</v>
+        <v>196.66005944184</v>
       </c>
       <c r="L38" t="n">
-        <v>281.2487005368192</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="M38" t="n">
-        <v>606.6216058255582</v>
+        <v>566.95801508505</v>
       </c>
       <c r="N38" t="n">
         <v>355.1744851426531</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K39" t="n">
         <v>145.2203338040354</v>
@@ -37630,22 +37630,22 @@
         <v>242.0571057130887</v>
       </c>
       <c r="M39" t="n">
-        <v>645.0577038484923</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="N39" t="n">
-        <v>645.0577038484923</v>
+        <v>324.5694176661304</v>
       </c>
       <c r="O39" t="n">
-        <v>544.779137836019</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="P39" t="n">
         <v>200.7607275294657</v>
       </c>
       <c r="Q39" t="n">
-        <v>83.77979896290668</v>
+        <v>186.5768518140364</v>
       </c>
       <c r="R39" t="n">
-        <v>8.678368021650044</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>97.02080117326977</v>
+        <v>266.1174163453435</v>
       </c>
       <c r="K41" t="n">
         <v>196.66005944184</v>
@@ -37788,22 +37788,22 @@
         <v>281.2487005368192</v>
       </c>
       <c r="M41" t="n">
-        <v>645.0577038484925</v>
+        <v>344.9327009218299</v>
       </c>
       <c r="N41" t="n">
-        <v>640.8837996908838</v>
+        <v>355.1744851426531</v>
       </c>
       <c r="O41" t="n">
         <v>321.9112339015547</v>
       </c>
       <c r="P41" t="n">
-        <v>239.8942946382361</v>
+        <v>388.3850643901986</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.4912846336419</v>
+        <v>343.8062752935466</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.93194189095229</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K42" t="n">
         <v>145.2203338040354</v>
@@ -37867,19 +37867,19 @@
         <v>242.0571057130887</v>
       </c>
       <c r="M42" t="n">
-        <v>553.4575058576692</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="N42" t="n">
         <v>645.0577038484925</v>
       </c>
       <c r="O42" t="n">
-        <v>645.0577038484925</v>
+        <v>274.4733698073837</v>
       </c>
       <c r="P42" t="n">
         <v>200.7607275294657</v>
       </c>
       <c r="Q42" t="n">
-        <v>83.77979896290668</v>
+        <v>236.6728996727828</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>645.0577038484925</v>
       </c>
       <c r="M44" t="n">
-        <v>566.95801508505</v>
+        <v>344.9327009218299</v>
       </c>
       <c r="N44" t="n">
         <v>355.1744851426531</v>
       </c>
       <c r="O44" t="n">
-        <v>321.9112339015547</v>
+        <v>543.9365480647747</v>
       </c>
       <c r="P44" t="n">
         <v>239.8942946382361</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>38.77699830058739</v>
+        <v>164.8680336409962</v>
       </c>
       <c r="K45" t="n">
-        <v>145.2203338040354</v>
+        <v>239.3390186335146</v>
       </c>
       <c r="L45" t="n">
         <v>242.0571057130887</v>
       </c>
       <c r="M45" t="n">
-        <v>596.9007032371907</v>
+        <v>645.0577038484925</v>
       </c>
       <c r="N45" t="n">
+        <v>324.5694176661304</v>
+      </c>
+      <c r="O45" t="n">
         <v>645.0577038484925</v>
       </c>
-      <c r="O45" t="n">
-        <v>274.4733698073837</v>
-      </c>
       <c r="P45" t="n">
-        <v>519.2234961694028</v>
+        <v>200.7607275294657</v>
       </c>
       <c r="Q45" t="n">
         <v>83.77979896290668</v>
